--- a/Code/Results/Cases/Case_5_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9379025183556564</v>
+        <v>0.7117080123049675</v>
       </c>
       <c r="C2">
-        <v>0.1244759443755044</v>
+        <v>0.1600642082822716</v>
       </c>
       <c r="D2">
-        <v>0.06327112923132461</v>
+        <v>0.104985907098623</v>
       </c>
       <c r="E2">
-        <v>0.05594926826209345</v>
+        <v>0.1422608133583481</v>
       </c>
       <c r="F2">
-        <v>1.09273169310454</v>
+        <v>2.307636691385504</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08625391353859158</v>
+        <v>0.213893841753503</v>
       </c>
       <c r="K2">
-        <v>0.7720140840595491</v>
+        <v>0.3364172470825508</v>
       </c>
       <c r="L2">
-        <v>0.1280937187996258</v>
+        <v>0.2358674811642132</v>
       </c>
       <c r="M2">
-        <v>0.1922055741330482</v>
+        <v>0.2029199323890616</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.969339911824306</v>
+        <v>6.287721418772492</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8185179245618031</v>
+        <v>0.6804301686572956</v>
       </c>
       <c r="C3">
-        <v>0.122972425172577</v>
+        <v>0.1594244198743837</v>
       </c>
       <c r="D3">
-        <v>0.05727186896307757</v>
+        <v>0.1037915478909213</v>
       </c>
       <c r="E3">
-        <v>0.05547041848621603</v>
+        <v>0.1427241575655867</v>
       </c>
       <c r="F3">
-        <v>1.083411970428863</v>
+        <v>2.317594672145383</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08832577851841883</v>
+        <v>0.2151499831879118</v>
       </c>
       <c r="K3">
-        <v>0.6711351084972819</v>
+        <v>0.3073175970681348</v>
       </c>
       <c r="L3">
-        <v>0.1178081833356543</v>
+        <v>0.2341666889500544</v>
       </c>
       <c r="M3">
-        <v>0.1695309614338214</v>
+        <v>0.1974650344182045</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.969449538761324</v>
+        <v>6.321571816392662</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7455586037459057</v>
+        <v>0.6614864130263527</v>
       </c>
       <c r="C4">
-        <v>0.1220650918016091</v>
+        <v>0.1590338788330001</v>
       </c>
       <c r="D4">
-        <v>0.05362598295941012</v>
+        <v>0.1030930743047591</v>
       </c>
       <c r="E4">
-        <v>0.05522666727920189</v>
+        <v>0.1430468559831795</v>
       </c>
       <c r="F4">
-        <v>1.079226601957146</v>
+        <v>2.324613667606336</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08966712646412134</v>
+        <v>0.2159684523112748</v>
       </c>
       <c r="K4">
-        <v>0.6092977052922208</v>
+        <v>0.2895201197247843</v>
       </c>
       <c r="L4">
-        <v>0.111590537780863</v>
+        <v>0.2332019661925457</v>
       </c>
       <c r="M4">
-        <v>0.155705904009352</v>
+        <v>0.1941925677695941</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.973900100233294</v>
+        <v>6.344846736307005</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7159017325311936</v>
+        <v>0.653832932145491</v>
       </c>
       <c r="C5">
-        <v>0.121699170691123</v>
+        <v>0.1588753248073473</v>
       </c>
       <c r="D5">
-        <v>0.05214918376224631</v>
+        <v>0.1028172593192167</v>
       </c>
       <c r="E5">
-        <v>0.05513971560930742</v>
+        <v>0.1431879886222873</v>
       </c>
       <c r="F5">
-        <v>1.077894828524158</v>
+        <v>2.327701745878969</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09023095422960381</v>
+        <v>0.2163138712992883</v>
       </c>
       <c r="K5">
-        <v>0.584115337455529</v>
+        <v>0.2822855278896697</v>
       </c>
       <c r="L5">
-        <v>0.1090800784238937</v>
+        <v>0.232828928303249</v>
       </c>
       <c r="M5">
-        <v>0.1500941813844889</v>
+        <v>0.1928784731158828</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.97678018644163</v>
+        <v>6.354958314533206</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7109814106613612</v>
+        <v>0.6525660976209906</v>
       </c>
       <c r="C6">
-        <v>0.121638636421558</v>
+        <v>0.1588490334886679</v>
       </c>
       <c r="D6">
-        <v>0.05190448623098121</v>
+        <v>0.1027719945761305</v>
       </c>
       <c r="E6">
-        <v>0.0551260176170949</v>
+        <v>0.1432120059459656</v>
       </c>
       <c r="F6">
-        <v>1.077695905322635</v>
+        <v>2.328228284332887</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09032561199586375</v>
+        <v>0.2163719463156628</v>
       </c>
       <c r="K6">
-        <v>0.5799345918362633</v>
+        <v>0.2810853318375024</v>
       </c>
       <c r="L6">
-        <v>0.1086645882880362</v>
+        <v>0.2327682018290389</v>
       </c>
       <c r="M6">
-        <v>0.1491636275603057</v>
+        <v>0.1926614481192424</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.977321819848157</v>
+        <v>6.356675211878525</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7451583535566044</v>
+        <v>0.6613829264105391</v>
       </c>
       <c r="C7">
-        <v>0.1220601415738827</v>
+        <v>0.1590317380851118</v>
       </c>
       <c r="D7">
-        <v>0.05360603087780191</v>
+        <v>0.1030893187929607</v>
       </c>
       <c r="E7">
-        <v>0.05522544483212499</v>
+        <v>0.1430487203220494</v>
       </c>
       <c r="F7">
-        <v>1.079207144029937</v>
+        <v>2.32465439187424</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0896746609694592</v>
+        <v>0.2159730626003782</v>
       </c>
       <c r="K7">
-        <v>0.6089580302044482</v>
+        <v>0.2894224778879959</v>
       </c>
       <c r="L7">
-        <v>0.1115565882369722</v>
+        <v>0.2331968537969473</v>
       </c>
       <c r="M7">
-        <v>0.1556301358897549</v>
+        <v>0.1941747664497235</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.973934670088141</v>
+        <v>6.344980565708937</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.896660194537418</v>
+        <v>0.7008696152832385</v>
       </c>
       <c r="C8">
-        <v>0.1239541458682822</v>
+        <v>0.1598431443660928</v>
       </c>
       <c r="D8">
-        <v>0.06119442291063137</v>
+        <v>0.1045668851633934</v>
       </c>
       <c r="E8">
-        <v>0.05577356768415775</v>
+        <v>0.1424126596264745</v>
       </c>
       <c r="F8">
-        <v>1.089191424805968</v>
+        <v>2.310882582939946</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08695381223457588</v>
+        <v>0.2143171758988007</v>
       </c>
       <c r="K8">
-        <v>0.7372041275678214</v>
+        <v>0.3263694656212976</v>
       </c>
       <c r="L8">
-        <v>0.1245261854689801</v>
+        <v>0.2352645836107996</v>
       </c>
       <c r="M8">
-        <v>0.1843657221549933</v>
+        <v>0.2010232090928525</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.968445906354788</v>
+        <v>6.298876441221751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197051874997129</v>
+        <v>0.7803502673318405</v>
       </c>
       <c r="C9">
-        <v>0.1278018566535337</v>
+        <v>0.1614517753221634</v>
       </c>
       <c r="D9">
-        <v>0.07640112117204012</v>
+        <v>0.1077390394663169</v>
       </c>
       <c r="E9">
-        <v>0.05725973768753789</v>
+        <v>0.141467453508529</v>
       </c>
       <c r="F9">
-        <v>1.121570752921635</v>
+        <v>2.291043875853738</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08217616889239387</v>
+        <v>0.2114435662719991</v>
       </c>
       <c r="K9">
-        <v>0.9899499604856885</v>
+        <v>0.3993596803011599</v>
       </c>
       <c r="L9">
-        <v>0.1507976761905567</v>
+        <v>0.2399473750425329</v>
       </c>
       <c r="M9">
-        <v>0.2416029290345385</v>
+        <v>0.2150578027648429</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.99416479504788</v>
+        <v>6.228205355032458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.420626292987208</v>
+        <v>0.8399681022684717</v>
       </c>
       <c r="C10">
-        <v>0.1307225680067887</v>
+        <v>0.1626434518755957</v>
       </c>
       <c r="D10">
-        <v>0.08781282211540287</v>
+        <v>0.1102346882391743</v>
       </c>
       <c r="E10">
-        <v>0.0586208238179271</v>
+        <v>0.1409558612950743</v>
       </c>
       <c r="F10">
-        <v>1.154055302862332</v>
+        <v>2.280824541167533</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07901884094841805</v>
+        <v>0.2095588293746324</v>
       </c>
       <c r="K10">
-        <v>1.177076947816516</v>
+        <v>0.4532961433037315</v>
       </c>
       <c r="L10">
-        <v>0.1707047229902159</v>
+        <v>0.2437666945461245</v>
       </c>
       <c r="M10">
-        <v>0.2843696452296243</v>
+        <v>0.2257321894802544</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.037811176611939</v>
+        <v>6.188288291082785</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.523168008422914</v>
+        <v>0.8673506231752981</v>
       </c>
       <c r="C11">
-        <v>0.1320746995186326</v>
+        <v>0.1631875420352245</v>
       </c>
       <c r="D11">
-        <v>0.09306595921188432</v>
+        <v>0.1114053863090518</v>
       </c>
       <c r="E11">
-        <v>0.05930282773790019</v>
+        <v>0.1407625532655263</v>
       </c>
       <c r="F11">
-        <v>1.170933000752584</v>
+        <v>2.277118650276392</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07766210137534024</v>
+        <v>0.2087503334748426</v>
       </c>
       <c r="K11">
-        <v>1.262677868070426</v>
+        <v>0.4778974195050978</v>
       </c>
       <c r="L11">
-        <v>0.1799148995170228</v>
+        <v>0.2455856696069034</v>
       </c>
       <c r="M11">
-        <v>0.3040220321551814</v>
+        <v>0.2306660087951968</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.063637334637917</v>
+        <v>6.172729985771497</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.562136305636244</v>
+        <v>0.8777568094152741</v>
       </c>
       <c r="C12">
-        <v>0.1325903677318294</v>
+        <v>0.1633938447708942</v>
       </c>
       <c r="D12">
-        <v>0.09506492580006665</v>
+        <v>0.1118537450047725</v>
       </c>
       <c r="E12">
-        <v>0.05957050482239445</v>
+        <v>0.1406949975765031</v>
       </c>
       <c r="F12">
-        <v>1.177645027250477</v>
+        <v>2.275850674554832</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07716005254393465</v>
+        <v>0.2084511867429715</v>
       </c>
       <c r="K12">
-        <v>1.295175172840231</v>
+        <v>0.487222278572176</v>
       </c>
       <c r="L12">
-        <v>0.1834267190736583</v>
+        <v>0.2462861162180872</v>
       </c>
       <c r="M12">
-        <v>0.3114959250686695</v>
+        <v>0.2325454139542273</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.074329012461249</v>
+        <v>6.167211865722123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.553737354077185</v>
+        <v>0.8755140151279761</v>
       </c>
       <c r="C13">
-        <v>0.1324791427003404</v>
+        <v>0.1633494021790085</v>
       </c>
       <c r="D13">
-        <v>0.09463396678316371</v>
+        <v>0.1117569595739312</v>
       </c>
       <c r="E13">
-        <v>0.05951243062361122</v>
+        <v>0.1407092961569436</v>
       </c>
       <c r="F13">
-        <v>1.176184891275511</v>
+        <v>2.276117739063423</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07726765186732365</v>
+        <v>0.2085153016844998</v>
       </c>
       <c r="K13">
-        <v>1.288172417408077</v>
+        <v>0.4852136159301779</v>
       </c>
       <c r="L13">
-        <v>0.1826692807588017</v>
+        <v>0.2461347461754642</v>
       </c>
       <c r="M13">
-        <v>0.3098848078712777</v>
+        <v>0.2321401600886119</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.071984925448049</v>
+        <v>6.168383688126227</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.526371082699768</v>
+        <v>0.8682060082526561</v>
       </c>
       <c r="C14">
-        <v>0.1321170491729902</v>
+        <v>0.1632045094283896</v>
       </c>
       <c r="D14">
-        <v>0.09323021576394552</v>
+        <v>0.1114421723211194</v>
       </c>
       <c r="E14">
-        <v>0.05932465869363845</v>
+        <v>0.1407568823945695</v>
       </c>
       <c r="F14">
-        <v>1.171478661538771</v>
+        <v>2.277011621546805</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07762056097526937</v>
+        <v>0.2087255820300093</v>
       </c>
       <c r="K14">
-        <v>1.26534971379499</v>
+        <v>0.4786644059783214</v>
       </c>
       <c r="L14">
-        <v>0.1802033239879535</v>
+        <v>0.2456430629764412</v>
       </c>
       <c r="M14">
-        <v>0.3046362520721715</v>
+        <v>0.230820407430528</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.064498352088236</v>
+        <v>6.172268524218907</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.509626965884394</v>
+        <v>0.863734444385301</v>
       </c>
       <c r="C15">
-        <v>0.131895739532581</v>
+        <v>0.1631157927340894</v>
       </c>
       <c r="D15">
-        <v>0.09237166843963251</v>
+        <v>0.1112500109556009</v>
       </c>
       <c r="E15">
-        <v>0.05921088105457528</v>
+        <v>0.1407867649351218</v>
       </c>
       <c r="F15">
-        <v>1.16863831814608</v>
+        <v>2.277576772090342</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07783826280228112</v>
+        <v>0.2088552976617084</v>
       </c>
       <c r="K15">
-        <v>1.251381262350208</v>
+        <v>0.4746539686144047</v>
       </c>
       <c r="L15">
-        <v>0.1786960556479258</v>
+        <v>0.2453434061675921</v>
       </c>
       <c r="M15">
-        <v>0.3014256318566737</v>
+        <v>0.2300134589564138</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.060033005005607</v>
+        <v>6.17469672294672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.413943267403596</v>
+        <v>0.8381838067141416</v>
       </c>
       <c r="C16">
-        <v>0.1306346980045205</v>
+        <v>0.1626079327618939</v>
       </c>
       <c r="D16">
-        <v>0.08747083135343559</v>
+        <v>0.1101588885681934</v>
       </c>
       <c r="E16">
-        <v>0.0585775497454577</v>
+        <v>0.1409692857030578</v>
       </c>
       <c r="F16">
-        <v>1.152996146333635</v>
+        <v>2.281085684611</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07910913127416386</v>
+        <v>0.2096126487255798</v>
       </c>
       <c r="K16">
-        <v>1.17149344797204</v>
+        <v>0.4516896633127772</v>
       </c>
       <c r="L16">
-        <v>0.1701060842919588</v>
+        <v>0.2436494538186835</v>
       </c>
       <c r="M16">
-        <v>0.2830895891341569</v>
+        <v>0.2254113101461783</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.036247998775224</v>
+        <v>6.189357348294891</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.35547087244484</v>
+        <v>0.8225759663021392</v>
       </c>
       <c r="C17">
-        <v>0.1298672884517771</v>
+        <v>0.1622968736160217</v>
       </c>
       <c r="D17">
-        <v>0.08448074385105286</v>
+        <v>0.1094985539800817</v>
       </c>
       <c r="E17">
-        <v>0.05820537951583837</v>
+        <v>0.1410913361946253</v>
       </c>
       <c r="F17">
-        <v>1.143951092116353</v>
+        <v>2.28347963475278</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07990933505524467</v>
+        <v>0.2100897672085686</v>
       </c>
       <c r="K17">
-        <v>1.122616162932133</v>
+        <v>0.4376181755847028</v>
       </c>
       <c r="L17">
-        <v>0.1648772816223527</v>
+        <v>0.2426310937849223</v>
       </c>
       <c r="M17">
-        <v>0.2718940750054273</v>
+        <v>0.2226079158844172</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.023222764972985</v>
+        <v>6.199016827186</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321916710411898</v>
+        <v>0.8136234561363267</v>
       </c>
       <c r="C18">
-        <v>0.1294280878823102</v>
+        <v>0.1621181490839589</v>
       </c>
       <c r="D18">
-        <v>0.08276669854165419</v>
+        <v>0.1091220835030882</v>
       </c>
       <c r="E18">
-        <v>0.05799720755578264</v>
+        <v>0.1411652479356054</v>
       </c>
       <c r="F18">
-        <v>1.138945109874484</v>
+        <v>2.284945338755406</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08037706036717651</v>
+        <v>0.2103687949289235</v>
       </c>
       <c r="K18">
-        <v>1.09454716144765</v>
+        <v>0.4295308050772917</v>
       </c>
       <c r="L18">
-        <v>0.1618842186851452</v>
+        <v>0.2420530408014017</v>
       </c>
       <c r="M18">
-        <v>0.2654730829992324</v>
+        <v>0.2210028265078421</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.016289636446544</v>
+        <v>6.204817469531747</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.310568659565661</v>
+        <v>0.8105965537372128</v>
       </c>
       <c r="C19">
-        <v>0.1292797509951527</v>
+        <v>0.1620576689656446</v>
       </c>
       <c r="D19">
-        <v>0.08218731993331119</v>
+        <v>0.1089951917011831</v>
       </c>
       <c r="E19">
-        <v>0.05792772459427731</v>
+        <v>0.1411909113221164</v>
       </c>
       <c r="F19">
-        <v>1.137283366383159</v>
+        <v>2.285456853760891</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08053669872609959</v>
+        <v>0.2104640597668528</v>
       </c>
       <c r="K19">
-        <v>1.085050623049312</v>
+        <v>0.4267936366065044</v>
       </c>
       <c r="L19">
-        <v>0.1608732366323835</v>
+        <v>0.2418586438029422</v>
       </c>
       <c r="M19">
-        <v>0.2633020967363784</v>
+        <v>0.2204606372563482</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.014036582814384</v>
+        <v>6.206823519164743</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.361687202014025</v>
+        <v>0.8242348953207568</v>
       </c>
       <c r="C20">
-        <v>0.1299487516628375</v>
+        <v>0.1623299670249665</v>
       </c>
       <c r="D20">
-        <v>0.08479844044758522</v>
+        <v>0.1095685027830271</v>
       </c>
       <c r="E20">
-        <v>0.05824438534458309</v>
+        <v>0.141077959744921</v>
       </c>
       <c r="F20">
-        <v>1.144893485179765</v>
+        <v>2.283215609253929</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07982337698350328</v>
+        <v>0.2100385009788237</v>
       </c>
       <c r="K20">
-        <v>1.12781459201409</v>
+        <v>0.4391154738117109</v>
       </c>
       <c r="L20">
-        <v>0.1654323920699881</v>
+        <v>0.2427387056431485</v>
       </c>
       <c r="M20">
-        <v>0.2730839303041535</v>
+        <v>0.2229055824229604</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.02455113216854</v>
+        <v>6.197963229949494</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.534405328201132</v>
+        <v>0.8703515476072141</v>
       </c>
       <c r="C21">
-        <v>0.1322233036287628</v>
+        <v>0.1632470608256824</v>
       </c>
       <c r="D21">
-        <v>0.09364226094646</v>
+        <v>0.1115344965759419</v>
       </c>
       <c r="E21">
-        <v>0.05937955313004473</v>
+        <v>0.1407427521138285</v>
       </c>
       <c r="F21">
-        <v>1.172852132529059</v>
+        <v>2.276745394651627</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07751658263560479</v>
+        <v>0.2086636273865938</v>
       </c>
       <c r="K21">
-        <v>1.272050953229041</v>
+        <v>0.4805878304242697</v>
       </c>
       <c r="L21">
-        <v>0.1809269644692009</v>
+        <v>0.2457871670240053</v>
       </c>
       <c r="M21">
-        <v>0.3061769832178882</v>
+        <v>0.231207751319964</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.066672149665237</v>
+        <v>6.171117321160949</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.64809996292712</v>
+        <v>0.9007069181457155</v>
       </c>
       <c r="C22">
-        <v>0.1337312447196695</v>
+        <v>0.1638479859151758</v>
       </c>
       <c r="D22">
-        <v>0.0994792701181666</v>
+        <v>0.1128487445072324</v>
       </c>
       <c r="E22">
-        <v>0.06017653497902842</v>
+        <v>0.1405565726509863</v>
       </c>
       <c r="F22">
-        <v>1.193004304441914</v>
+        <v>2.273305638846779</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07607741051467798</v>
+        <v>0.2078059385938023</v>
       </c>
       <c r="K22">
-        <v>1.366803332676739</v>
+        <v>0.5077439969854822</v>
       </c>
       <c r="L22">
-        <v>0.191195178671606</v>
+        <v>0.247847321097332</v>
       </c>
       <c r="M22">
-        <v>0.3279933270458386</v>
+        <v>0.2366981868352624</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.099543173250083</v>
+        <v>6.155748653429157</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587338399190344</v>
+        <v>0.884486189294222</v>
       </c>
       <c r="C23">
-        <v>0.1329243760556977</v>
+        <v>0.1635271250495052</v>
       </c>
       <c r="D23">
-        <v>0.09635844275385352</v>
+        <v>0.1121446365596483</v>
       </c>
       <c r="E23">
-        <v>0.05974599828554084</v>
+        <v>0.1406529373274967</v>
       </c>
       <c r="F23">
-        <v>1.182070181536957</v>
+        <v>2.27506939190468</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07683916276092262</v>
+        <v>0.2082599687742235</v>
       </c>
       <c r="K23">
-        <v>1.316182995853978</v>
+        <v>0.4932456852503719</v>
       </c>
       <c r="L23">
-        <v>0.1857012090184114</v>
+        <v>0.2467416020525448</v>
       </c>
       <c r="M23">
-        <v>0.3163310821059326</v>
+        <v>0.2337619834413402</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.081491884558403</v>
+        <v>6.163752175038496</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.358876606385138</v>
+        <v>0.8234848291547507</v>
       </c>
       <c r="C24">
-        <v>0.1299119159561002</v>
+        <v>0.1623150051594351</v>
       </c>
       <c r="D24">
-        <v>0.08465479431634293</v>
+        <v>0.1095368690681155</v>
       </c>
       <c r="E24">
-        <v>0.05822673279196344</v>
+        <v>0.1410839955764107</v>
       </c>
       <c r="F24">
-        <v>1.144466825978753</v>
+        <v>2.283334696718711</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07986221473517574</v>
+        <v>0.2100616637191042</v>
       </c>
       <c r="K24">
-        <v>1.12546428606322</v>
+        <v>0.438438537411912</v>
       </c>
       <c r="L24">
-        <v>0.1651813861474025</v>
+        <v>0.2426900312167106</v>
       </c>
       <c r="M24">
-        <v>0.2725459488399196</v>
+        <v>0.2227709867522236</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.023948851854612</v>
+        <v>6.198438790961262</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115348922646405</v>
+        <v>0.7586320231602315</v>
       </c>
       <c r="C25">
-        <v>0.1267454373523123</v>
+        <v>0.1610148149816837</v>
       </c>
       <c r="D25">
-        <v>0.07224837140364571</v>
+        <v>0.1068517296979508</v>
       </c>
       <c r="E25">
-        <v>0.0568118158938784</v>
+        <v>0.1416909511064937</v>
       </c>
       <c r="F25">
-        <v>1.111352158034535</v>
+        <v>2.295644810000852</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08340765752842039</v>
+        <v>0.212181088280289</v>
       </c>
       <c r="K25">
-        <v>0.921374703564851</v>
+        <v>0.3795581356595221</v>
       </c>
       <c r="L25">
-        <v>0.1435914215309353</v>
+        <v>0.2386137366509828</v>
       </c>
       <c r="M25">
-        <v>0.2260065291363809</v>
+        <v>0.2111968977022158</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.983051846867909</v>
+        <v>6.245213508256796</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_194/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7117080123049675</v>
+        <v>0.9379025183554859</v>
       </c>
       <c r="C2">
-        <v>0.1600642082822716</v>
+        <v>0.1244759443759946</v>
       </c>
       <c r="D2">
-        <v>0.104985907098623</v>
+        <v>0.06327112923138145</v>
       </c>
       <c r="E2">
-        <v>0.1422608133583481</v>
+        <v>0.05594926826210056</v>
       </c>
       <c r="F2">
-        <v>2.307636691385504</v>
+        <v>1.092731693104518</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.213893841753503</v>
+        <v>0.08625391353854894</v>
       </c>
       <c r="K2">
-        <v>0.3364172470825508</v>
+        <v>0.7720140840595207</v>
       </c>
       <c r="L2">
-        <v>0.2358674811642132</v>
+        <v>0.1280937187996471</v>
       </c>
       <c r="M2">
-        <v>0.2029199323890616</v>
+        <v>0.1922055741330482</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.287721418772492</v>
+        <v>2.969339911824221</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6804301686572956</v>
+        <v>0.8185179245619167</v>
       </c>
       <c r="C3">
-        <v>0.1594244198743837</v>
+        <v>0.1229724251723496</v>
       </c>
       <c r="D3">
-        <v>0.1037915478909213</v>
+        <v>0.05727186896277914</v>
       </c>
       <c r="E3">
-        <v>0.1427241575655867</v>
+        <v>0.05547041848620715</v>
       </c>
       <c r="F3">
-        <v>2.317594672145383</v>
+        <v>1.083411970428877</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2151499831879118</v>
+        <v>0.08832577851846501</v>
       </c>
       <c r="K3">
-        <v>0.3073175970681348</v>
+        <v>0.6711351084972677</v>
       </c>
       <c r="L3">
-        <v>0.2341666889500544</v>
+        <v>0.1178081833357609</v>
       </c>
       <c r="M3">
-        <v>0.1974650344182045</v>
+        <v>0.1695309614338214</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.321571816392662</v>
+        <v>2.969449538761324</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6614864130263527</v>
+        <v>0.7455586037457067</v>
       </c>
       <c r="C4">
-        <v>0.1590338788330001</v>
+        <v>0.1220650918016233</v>
       </c>
       <c r="D4">
-        <v>0.1030930743047591</v>
+        <v>0.05362598295943144</v>
       </c>
       <c r="E4">
-        <v>0.1430468559831795</v>
+        <v>0.05522666727917702</v>
       </c>
       <c r="F4">
-        <v>2.324613667606336</v>
+        <v>1.079226601957139</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2159684523112748</v>
+        <v>0.08966712646431141</v>
       </c>
       <c r="K4">
-        <v>0.2895201197247843</v>
+        <v>0.6092977052923487</v>
       </c>
       <c r="L4">
-        <v>0.2332019661925457</v>
+        <v>0.1115905377807422</v>
       </c>
       <c r="M4">
-        <v>0.1941925677695941</v>
+        <v>0.155705904009352</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.344846736307005</v>
+        <v>2.973900100233351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.653832932145491</v>
+        <v>0.7159017325310231</v>
       </c>
       <c r="C5">
-        <v>0.1588753248073473</v>
+        <v>0.1216991706907393</v>
       </c>
       <c r="D5">
-        <v>0.1028172593192167</v>
+        <v>0.05214918376214683</v>
       </c>
       <c r="E5">
-        <v>0.1431879886222873</v>
+        <v>0.05513971560932163</v>
       </c>
       <c r="F5">
-        <v>2.327701745878969</v>
+        <v>1.077894828524144</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2163138712992883</v>
+        <v>0.09023095422965888</v>
       </c>
       <c r="K5">
-        <v>0.2822855278896697</v>
+        <v>0.5841153374554295</v>
       </c>
       <c r="L5">
-        <v>0.232828928303249</v>
+        <v>0.1090800784239718</v>
       </c>
       <c r="M5">
-        <v>0.1928784731158828</v>
+        <v>0.1500941813844996</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.354958314533206</v>
+        <v>2.976780186441573</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6525660976209906</v>
+        <v>0.7109814106614749</v>
       </c>
       <c r="C6">
-        <v>0.1588490334886679</v>
+        <v>0.1216386364212276</v>
       </c>
       <c r="D6">
-        <v>0.1027719945761305</v>
+        <v>0.05190448623091015</v>
       </c>
       <c r="E6">
-        <v>0.1432120059459656</v>
+        <v>0.05512601761706648</v>
       </c>
       <c r="F6">
-        <v>2.328228284332887</v>
+        <v>1.077695905322599</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2163719463156628</v>
+        <v>0.09032561199574296</v>
       </c>
       <c r="K6">
-        <v>0.2810853318375024</v>
+        <v>0.5799345918361922</v>
       </c>
       <c r="L6">
-        <v>0.2327682018290389</v>
+        <v>0.1086645882880433</v>
       </c>
       <c r="M6">
-        <v>0.1926614481192424</v>
+        <v>0.1491636275603057</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.356675211878525</v>
+        <v>2.977321819848129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6613829264105391</v>
+        <v>0.7451583535565476</v>
       </c>
       <c r="C7">
-        <v>0.1590317380851118</v>
+        <v>0.1220601415742095</v>
       </c>
       <c r="D7">
-        <v>0.1030893187929607</v>
+        <v>0.05360603087779481</v>
       </c>
       <c r="E7">
-        <v>0.1430487203220494</v>
+        <v>0.05522544483211256</v>
       </c>
       <c r="F7">
-        <v>2.32465439187424</v>
+        <v>1.079207144029944</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2159730626003782</v>
+        <v>0.08967466096943255</v>
       </c>
       <c r="K7">
-        <v>0.2894224778879959</v>
+        <v>0.6089580302044624</v>
       </c>
       <c r="L7">
-        <v>0.2331968537969473</v>
+        <v>0.1115565882370433</v>
       </c>
       <c r="M7">
-        <v>0.1941747664497235</v>
+        <v>0.155630135889762</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.344980565708937</v>
+        <v>2.973934670088084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7008696152832385</v>
+        <v>0.896660194537418</v>
       </c>
       <c r="C8">
-        <v>0.1598431443660928</v>
+        <v>0.1239541458682822</v>
       </c>
       <c r="D8">
-        <v>0.1045668851633934</v>
+        <v>0.06119442291068111</v>
       </c>
       <c r="E8">
-        <v>0.1424126596264745</v>
+        <v>0.05577356768413821</v>
       </c>
       <c r="F8">
-        <v>2.310882582939946</v>
+        <v>1.089191424805932</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2143171758988007</v>
+        <v>0.08695381223465048</v>
       </c>
       <c r="K8">
-        <v>0.3263694656212976</v>
+        <v>0.737204127567793</v>
       </c>
       <c r="L8">
-        <v>0.2352645836107996</v>
+        <v>0.1245261854690725</v>
       </c>
       <c r="M8">
-        <v>0.2010232090928525</v>
+        <v>0.1843657221549897</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.298876441221751</v>
+        <v>2.968445906354702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7803502673318405</v>
+        <v>1.197051874997157</v>
       </c>
       <c r="C9">
-        <v>0.1614517753221634</v>
+        <v>0.1278018566535337</v>
       </c>
       <c r="D9">
-        <v>0.1077390394663169</v>
+        <v>0.07640112117215381</v>
       </c>
       <c r="E9">
-        <v>0.141467453508529</v>
+        <v>0.05725973768752368</v>
       </c>
       <c r="F9">
-        <v>2.291043875853738</v>
+        <v>1.121570752921663</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2114435662719991</v>
+        <v>0.08217616889241874</v>
       </c>
       <c r="K9">
-        <v>0.3993596803011599</v>
+        <v>0.9899499604856885</v>
       </c>
       <c r="L9">
-        <v>0.2399473750425329</v>
+        <v>0.1507976761904359</v>
       </c>
       <c r="M9">
-        <v>0.2150578027648429</v>
+        <v>0.2416029290345527</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.228205355032458</v>
+        <v>2.994164795047936</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8399681022684717</v>
+        <v>1.420626292987293</v>
       </c>
       <c r="C10">
-        <v>0.1626434518755957</v>
+        <v>0.1307225680066821</v>
       </c>
       <c r="D10">
-        <v>0.1102346882391743</v>
+        <v>0.08781282211528207</v>
       </c>
       <c r="E10">
-        <v>0.1409558612950743</v>
+        <v>0.0586208238179271</v>
       </c>
       <c r="F10">
-        <v>2.280824541167533</v>
+        <v>1.154055302862332</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2095588293746324</v>
+        <v>0.07901884094836475</v>
       </c>
       <c r="K10">
-        <v>0.4532961433037315</v>
+        <v>1.17707694781646</v>
       </c>
       <c r="L10">
-        <v>0.2437666945461245</v>
+        <v>0.1707047229901875</v>
       </c>
       <c r="M10">
-        <v>0.2257321894802544</v>
+        <v>0.2843696452296456</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.188288291082785</v>
+        <v>3.03781117661191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8673506231752981</v>
+        <v>1.523168008422942</v>
       </c>
       <c r="C11">
-        <v>0.1631875420352245</v>
+        <v>0.132074699518526</v>
       </c>
       <c r="D11">
-        <v>0.1114053863090518</v>
+        <v>0.09306595921187721</v>
       </c>
       <c r="E11">
-        <v>0.1407625532655263</v>
+        <v>0.05930282773790019</v>
       </c>
       <c r="F11">
-        <v>2.277118650276392</v>
+        <v>1.170933000752555</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2087503334748426</v>
+        <v>0.07766210137525675</v>
       </c>
       <c r="K11">
-        <v>0.4778974195050978</v>
+        <v>1.262677868070512</v>
       </c>
       <c r="L11">
-        <v>0.2455856696069034</v>
+        <v>0.1799148995169375</v>
       </c>
       <c r="M11">
-        <v>0.2306660087951968</v>
+        <v>0.3040220321551814</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.172729985771497</v>
+        <v>3.063637334637946</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8777568094152741</v>
+        <v>1.562136305636358</v>
       </c>
       <c r="C12">
-        <v>0.1633938447708942</v>
+        <v>0.132590367732071</v>
       </c>
       <c r="D12">
-        <v>0.1118537450047725</v>
+        <v>0.0950649258001377</v>
       </c>
       <c r="E12">
-        <v>0.1406949975765031</v>
+        <v>0.05957050482239445</v>
       </c>
       <c r="F12">
-        <v>2.275850674554832</v>
+        <v>1.177645027250477</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2084511867429715</v>
+        <v>0.07716005254379965</v>
       </c>
       <c r="K12">
-        <v>0.487222278572176</v>
+        <v>1.295175172840231</v>
       </c>
       <c r="L12">
-        <v>0.2462861162180872</v>
+        <v>0.1834267190736369</v>
       </c>
       <c r="M12">
-        <v>0.2325454139542273</v>
+        <v>0.3114959250686624</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.167211865722123</v>
+        <v>3.074329012461249</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8755140151279761</v>
+        <v>1.553737354077299</v>
       </c>
       <c r="C13">
-        <v>0.1633494021790085</v>
+        <v>0.1324791427003404</v>
       </c>
       <c r="D13">
-        <v>0.1117569595739312</v>
+        <v>0.09463396678304292</v>
       </c>
       <c r="E13">
-        <v>0.1407092961569436</v>
+        <v>0.05951243062362721</v>
       </c>
       <c r="F13">
-        <v>2.276117739063423</v>
+        <v>1.176184891275511</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2085153016844998</v>
+        <v>0.07726765186744267</v>
       </c>
       <c r="K13">
-        <v>0.4852136159301779</v>
+        <v>1.288172417407992</v>
       </c>
       <c r="L13">
-        <v>0.2461347461754642</v>
+        <v>0.1826692807588017</v>
       </c>
       <c r="M13">
-        <v>0.2321401600886119</v>
+        <v>0.3098848078712848</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.168383688126227</v>
+        <v>3.071984925447964</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8682060082526561</v>
+        <v>1.52637108269991</v>
       </c>
       <c r="C14">
-        <v>0.1632045094283896</v>
+        <v>0.1321170491730754</v>
       </c>
       <c r="D14">
-        <v>0.1114421723211194</v>
+        <v>0.093230215764045</v>
       </c>
       <c r="E14">
-        <v>0.1407568823945695</v>
+        <v>0.05932465869361714</v>
       </c>
       <c r="F14">
-        <v>2.277011621546805</v>
+        <v>1.171478661538771</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2087255820300093</v>
+        <v>0.07762056097528003</v>
       </c>
       <c r="K14">
-        <v>0.4786644059783214</v>
+        <v>1.265349713795047</v>
       </c>
       <c r="L14">
-        <v>0.2456430629764412</v>
+        <v>0.180203323987989</v>
       </c>
       <c r="M14">
-        <v>0.230820407430528</v>
+        <v>0.3046362520721715</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.172268524218907</v>
+        <v>3.064498352088265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.863734444385301</v>
+        <v>1.509626965884138</v>
       </c>
       <c r="C15">
-        <v>0.1631157927340894</v>
+        <v>0.1318957395324745</v>
       </c>
       <c r="D15">
-        <v>0.1112500109556009</v>
+        <v>0.09237166843964673</v>
       </c>
       <c r="E15">
-        <v>0.1407867649351218</v>
+        <v>0.05921088105459127</v>
       </c>
       <c r="F15">
-        <v>2.277576772090342</v>
+        <v>1.16863831814608</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2088552976617084</v>
+        <v>0.07783826280218875</v>
       </c>
       <c r="K15">
-        <v>0.4746539686144047</v>
+        <v>1.251381262350236</v>
       </c>
       <c r="L15">
-        <v>0.2453434061675921</v>
+        <v>0.1786960556480039</v>
       </c>
       <c r="M15">
-        <v>0.2300134589564138</v>
+        <v>0.3014256318566808</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.17469672294672</v>
+        <v>3.060033005005579</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8381838067141416</v>
+        <v>1.413943267403738</v>
       </c>
       <c r="C16">
-        <v>0.1626079327618939</v>
+        <v>0.1306346980048971</v>
       </c>
       <c r="D16">
-        <v>0.1101588885681934</v>
+        <v>0.08747083135342848</v>
       </c>
       <c r="E16">
-        <v>0.1409692857030578</v>
+        <v>0.0585775497454879</v>
       </c>
       <c r="F16">
-        <v>2.281085684611</v>
+        <v>1.152996146333649</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2096126487255798</v>
+        <v>0.07910913127412655</v>
       </c>
       <c r="K16">
-        <v>0.4516896633127772</v>
+        <v>1.171493447972125</v>
       </c>
       <c r="L16">
-        <v>0.2436494538186835</v>
+        <v>0.1701060842920441</v>
       </c>
       <c r="M16">
-        <v>0.2254113101461783</v>
+        <v>0.2830895891341711</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.189357348294891</v>
+        <v>3.036247998775252</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8225759663021392</v>
+        <v>1.355470872444755</v>
       </c>
       <c r="C17">
-        <v>0.1622968736160217</v>
+        <v>0.1298672884515497</v>
       </c>
       <c r="D17">
-        <v>0.1094985539800817</v>
+        <v>0.08448074385081838</v>
       </c>
       <c r="E17">
-        <v>0.1410913361946253</v>
+        <v>0.05820537951585969</v>
       </c>
       <c r="F17">
-        <v>2.28347963475278</v>
+        <v>1.143951092116339</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2100897672085686</v>
+        <v>0.07990933505530151</v>
       </c>
       <c r="K17">
-        <v>0.4376181755847028</v>
+        <v>1.12261616293199</v>
       </c>
       <c r="L17">
-        <v>0.2426310937849223</v>
+        <v>0.1648772816224238</v>
       </c>
       <c r="M17">
-        <v>0.2226079158844172</v>
+        <v>0.2718940750054415</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.199016827186</v>
+        <v>3.023222764972843</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8136234561363267</v>
+        <v>1.321916710411926</v>
       </c>
       <c r="C18">
-        <v>0.1621181490839589</v>
+        <v>0.129428087881827</v>
       </c>
       <c r="D18">
-        <v>0.1091220835030882</v>
+        <v>0.08276669854165419</v>
       </c>
       <c r="E18">
-        <v>0.1411652479356054</v>
+        <v>0.05799720755578619</v>
       </c>
       <c r="F18">
-        <v>2.284945338755406</v>
+        <v>1.138945109874484</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2103687949289235</v>
+        <v>0.08037706036731151</v>
       </c>
       <c r="K18">
-        <v>0.4295308050772917</v>
+        <v>1.094547161447736</v>
       </c>
       <c r="L18">
-        <v>0.2420530408014017</v>
+        <v>0.1618842186851026</v>
       </c>
       <c r="M18">
-        <v>0.2210028265078421</v>
+        <v>0.2654730829992218</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.204817469531747</v>
+        <v>3.016289636446515</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8105965537372128</v>
+        <v>1.310568659565661</v>
       </c>
       <c r="C19">
-        <v>0.1620576689656446</v>
+        <v>0.1292797509946908</v>
       </c>
       <c r="D19">
-        <v>0.1089951917011831</v>
+        <v>0.08218731993354567</v>
       </c>
       <c r="E19">
-        <v>0.1411909113221164</v>
+        <v>0.05792772459429152</v>
       </c>
       <c r="F19">
-        <v>2.285456853760891</v>
+        <v>1.137283366383159</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2104640597668528</v>
+        <v>0.08053669872611735</v>
       </c>
       <c r="K19">
-        <v>0.4267936366065044</v>
+        <v>1.08505062304917</v>
       </c>
       <c r="L19">
-        <v>0.2418586438029422</v>
+        <v>0.1608732366323409</v>
       </c>
       <c r="M19">
-        <v>0.2204606372563482</v>
+        <v>0.2633020967363713</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.206823519164743</v>
+        <v>3.014036582814299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8242348953207568</v>
+        <v>1.361687202014167</v>
       </c>
       <c r="C20">
-        <v>0.1623299670249665</v>
+        <v>0.1299487516630791</v>
       </c>
       <c r="D20">
-        <v>0.1095685027830271</v>
+        <v>0.08479844044740048</v>
       </c>
       <c r="E20">
-        <v>0.141077959744921</v>
+        <v>0.05824438534458132</v>
       </c>
       <c r="F20">
-        <v>2.283215609253929</v>
+        <v>1.144893485179765</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2100385009788237</v>
+        <v>0.07982337698350683</v>
       </c>
       <c r="K20">
-        <v>0.4391154738117109</v>
+        <v>1.127814592014062</v>
       </c>
       <c r="L20">
-        <v>0.2427387056431485</v>
+        <v>0.1654323920699312</v>
       </c>
       <c r="M20">
-        <v>0.2229055824229604</v>
+        <v>0.2730839303041677</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.197963229949494</v>
+        <v>3.02455113216854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8703515476072141</v>
+        <v>1.534405328201018</v>
       </c>
       <c r="C21">
-        <v>0.1632470608256824</v>
+        <v>0.1322233036286562</v>
       </c>
       <c r="D21">
-        <v>0.1115344965759419</v>
+        <v>0.09364226094657369</v>
       </c>
       <c r="E21">
-        <v>0.1407427521138285</v>
+        <v>0.05937955313004473</v>
       </c>
       <c r="F21">
-        <v>2.276745394651627</v>
+        <v>1.172852132529059</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2086636273865938</v>
+        <v>0.07751658263563854</v>
       </c>
       <c r="K21">
-        <v>0.4805878304242697</v>
+        <v>1.272050953229012</v>
       </c>
       <c r="L21">
-        <v>0.2457871670240053</v>
+        <v>0.1809269644692222</v>
       </c>
       <c r="M21">
-        <v>0.231207751319964</v>
+        <v>0.3061769832178882</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.171117321160949</v>
+        <v>3.06667214966518</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9007069181457155</v>
+        <v>1.648099962926892</v>
       </c>
       <c r="C22">
-        <v>0.1638479859151758</v>
+        <v>0.1337312447195558</v>
       </c>
       <c r="D22">
-        <v>0.1128487445072324</v>
+        <v>0.09947927011805291</v>
       </c>
       <c r="E22">
-        <v>0.1405565726509863</v>
+        <v>0.06017653497898223</v>
       </c>
       <c r="F22">
-        <v>2.273305638846779</v>
+        <v>1.193004304441899</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2078059385938023</v>
+        <v>0.07607741051467087</v>
       </c>
       <c r="K22">
-        <v>0.5077439969854822</v>
+        <v>1.366803332676682</v>
       </c>
       <c r="L22">
-        <v>0.247847321097332</v>
+        <v>0.1911951786717196</v>
       </c>
       <c r="M22">
-        <v>0.2366981868352624</v>
+        <v>0.3279933270458528</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.155748653429157</v>
+        <v>3.09954317324997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.884486189294222</v>
+        <v>1.587338399190401</v>
       </c>
       <c r="C23">
-        <v>0.1635271250495052</v>
+        <v>0.1329243760559251</v>
       </c>
       <c r="D23">
-        <v>0.1121446365596483</v>
+        <v>0.09635844275392458</v>
       </c>
       <c r="E23">
-        <v>0.1406529373274967</v>
+        <v>0.05974599828553906</v>
       </c>
       <c r="F23">
-        <v>2.27506939190468</v>
+        <v>1.182070181536957</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2082599687742235</v>
+        <v>0.07683916276101321</v>
       </c>
       <c r="K23">
-        <v>0.4932456852503719</v>
+        <v>1.316182995854007</v>
       </c>
       <c r="L23">
-        <v>0.2467416020525448</v>
+        <v>0.1857012090182835</v>
       </c>
       <c r="M23">
-        <v>0.2337619834413402</v>
+        <v>0.3163310821059255</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.163752175038496</v>
+        <v>3.081491884558403</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8234848291547507</v>
+        <v>1.358876606385223</v>
       </c>
       <c r="C24">
-        <v>0.1623150051594351</v>
+        <v>0.1299119159561144</v>
       </c>
       <c r="D24">
-        <v>0.1095368690681155</v>
+        <v>0.08465479431635003</v>
       </c>
       <c r="E24">
-        <v>0.1410839955764107</v>
+        <v>0.05822673279195989</v>
       </c>
       <c r="F24">
-        <v>2.283334696718711</v>
+        <v>1.144466825978753</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2100616637191042</v>
+        <v>0.07986221473514732</v>
       </c>
       <c r="K24">
-        <v>0.438438537411912</v>
+        <v>1.125464286063249</v>
       </c>
       <c r="L24">
-        <v>0.2426900312167106</v>
+        <v>0.1651813861474309</v>
       </c>
       <c r="M24">
-        <v>0.2227709867522236</v>
+        <v>0.2725459488399125</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.198438790961262</v>
+        <v>3.023948851854669</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7586320231602315</v>
+        <v>1.11534892264612</v>
       </c>
       <c r="C25">
-        <v>0.1610148149816837</v>
+        <v>0.1267454373520849</v>
       </c>
       <c r="D25">
-        <v>0.1068517296979508</v>
+        <v>0.07224837140395124</v>
       </c>
       <c r="E25">
-        <v>0.1416909511064937</v>
+        <v>0.0568118158938784</v>
       </c>
       <c r="F25">
-        <v>2.295644810000852</v>
+        <v>1.111352158034535</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.212181088280289</v>
+        <v>0.08340765752848434</v>
       </c>
       <c r="K25">
-        <v>0.3795581356595221</v>
+        <v>0.9213747035649646</v>
       </c>
       <c r="L25">
-        <v>0.2386137366509828</v>
+        <v>0.1435914215309353</v>
       </c>
       <c r="M25">
-        <v>0.2111968977022158</v>
+        <v>0.2260065291363951</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.245213508256796</v>
+        <v>2.983051846868051</v>
       </c>
     </row>
   </sheetData>
